--- a/biology/Médecine/Office_impérial_à_la_Santé_(Empire_allemand)/Office_impérial_à_la_Santé_(Empire_allemand).xlsx
+++ b/biology/Médecine/Office_impérial_à_la_Santé_(Empire_allemand)/Office_impérial_à_la_Santé_(Empire_allemand).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Office_imp%C3%A9rial_%C3%A0_la_Sant%C3%A9_(Empire_allemand)</t>
+          <t>Office_impérial_à_la_Santé_(Empire_allemand)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’office impérial à la Santé (en allemand : Kaiserliches Gesundheitsamt) était une office de l'Empire allemand créé en 1876 et chargé de la santé publique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Office_imp%C3%A9rial_%C3%A0_la_Sant%C3%A9_(Empire_allemand)</t>
+          <t>Office_impérial_à_la_Santé_(Empire_allemand)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kaiserliches Gesundheitsamt est créé à Berlin le 16 juillet 1876. Cette administration est chargé des questions sanitaires et vétérinaires dans l'Empire allemand. Il est dirigé par un directeur placé sous la tutelle de la chancellerie du Reich, à partir de 1879 du secrétariat impérial de l'Intérieur.
 Rebaptisée Reichsgesundheitsamt en 1918, ce service de santé mettra en œuvre la politique raciale du régime nazi, entre 1933 et 1945. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Office_imp%C3%A9rial_%C3%A0_la_Sant%C3%A9_(Empire_allemand)</t>
+          <t>Office_impérial_à_la_Santé_(Empire_allemand)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Chefs de l'office impérial à la Santé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1876–1884 : Heinrich Struck (directeur)
 1884–1885 : Robert Koch (directeur intérimaire)
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Office_imp%C3%A9rial_%C3%A0_la_Sant%C3%A9_(Empire_allemand)</t>
+          <t>Office_impérial_à_la_Santé_(Empire_allemand)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Kaiserliches Gesundheitsamt » (voir la liste des auteurs).
  Portail de la politique   Portail de l'Empire allemand   Portail de la médecine                   </t>
